--- a/Phenoloxidase Activity data/15. AEG 15 (91147).xlsx
+++ b/Phenoloxidase Activity data/15. AEG 15 (91147).xlsx
@@ -5,17 +5,20 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkyi\OneDrive\Desktop\Research\Data\Phenol oxidase activity\Phenoloxidase Activity data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkyi\OneDrive\Desktop\Research\Research\Phenoloxidase Activity data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Blank " sheetId="4" r:id="rId1"/>
-    <sheet name="1 " sheetId="10" r:id="rId2"/>
+    <sheet name="1" sheetId="11" r:id="rId2"/>
     <sheet name="Phenol oxidase activity" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Sample - Blank</t>
   </si>
@@ -98,7 +101,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +120,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -149,7 +158,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -168,6 +177,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,11 +415,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="381411792"/>
-        <c:axId val="381412576"/>
+        <c:axId val="411812576"/>
+        <c:axId val="411805128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="381411792"/>
+        <c:axId val="411812576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -466,12 +476,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381412576"/>
+        <c:crossAx val="411805128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="381412576"/>
+        <c:axId val="411805128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -528,7 +538,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381411792"/>
+        <c:crossAx val="411812576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -796,11 +806,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="381416104"/>
-        <c:axId val="381416496"/>
+        <c:axId val="411808264"/>
+        <c:axId val="411808656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="381416104"/>
+        <c:axId val="411808264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -857,12 +867,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381416496"/>
+        <c:crossAx val="411808656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="381416496"/>
+        <c:axId val="411808656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -919,7 +929,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381416104"/>
+        <c:crossAx val="411808264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1187,11 +1197,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="381415320"/>
-        <c:axId val="381412968"/>
+        <c:axId val="412284904"/>
+        <c:axId val="412285296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="381415320"/>
+        <c:axId val="412284904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1248,12 +1258,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381412968"/>
+        <c:crossAx val="412285296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="381412968"/>
+        <c:axId val="412285296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1310,7 +1320,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381415320"/>
+        <c:crossAx val="412284904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1451,8 +1461,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.17371587926509185"/>
-                  <c:y val="9.2045785943423739E-4"/>
+                  <c:x val="-0.42527143482064744"/>
+                  <c:y val="0.2012325021872266"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1487,7 +1497,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'1 '!$N$4:$N$14</c:f>
+              <c:f>'1'!$N$4:$N$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1529,42 +1539,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1 '!$O$4:$O$14</c:f>
+              <c:f>'1'!$O$4:$O$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-2.5066733360290527E-2</c:v>
+                  <c:v>1.3991999626159668</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.999969482421875E-3</c:v>
+                  <c:v>1.4086999893188477</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.703333854675293E-2</c:v>
+                  <c:v>1.4182000160217285</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1133333841959709E-2</c:v>
+                  <c:v>1.4309999942779541</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.5133352279663086E-2</c:v>
+                  <c:v>1.4435000419616699</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.2666614850362068E-2</c:v>
+                  <c:v>1.4596999883651733</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.8266660372416252E-2</c:v>
+                  <c:v>1.4768999814987183</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.4999909400939941E-2</c:v>
+                  <c:v>1.4939999580383301</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.11576664447784424</c:v>
+                  <c:v>1.5144000053405762</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.13326664765675855</c:v>
+                  <c:v>1.5327999591827393</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.15386672814687086</c:v>
+                  <c:v>1.5535000562667847</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1579,11 +1589,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="381414928"/>
-        <c:axId val="381418064"/>
+        <c:axId val="417734864"/>
+        <c:axId val="417737608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="381414928"/>
+        <c:axId val="417734864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1640,12 +1650,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381418064"/>
+        <c:crossAx val="417737608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="381418064"/>
+        <c:axId val="417737608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1702,7 +1712,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381414928"/>
+        <c:crossAx val="417734864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1843,8 +1853,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.36816032370953633"/>
-                  <c:y val="0.12025189559638379"/>
+                  <c:x val="-0.40860476815398078"/>
+                  <c:y val="0.17087962962962963"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1879,7 +1889,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'1 '!$N$19:$N$29</c:f>
+              <c:f>'1'!$N$19:$N$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1921,42 +1931,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1 '!$O$19:$O$29</c:f>
+              <c:f>'1'!$O$19:$O$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-0.17996668815612793</c:v>
+                  <c:v>1.2443000078201294</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.12059998512268066</c:v>
+                  <c:v>1.2811000347137451</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.10216665267944336</c:v>
+                  <c:v>1.2990000247955322</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-8.0666621526082283E-2</c:v>
+                  <c:v>1.3192000389099121</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-6.4166665077209473E-2</c:v>
+                  <c:v>1.3342000246047974</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-4.2033354441324944E-2</c:v>
+                  <c:v>1.3550000190734863</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-2.2933324178059822E-2</c:v>
+                  <c:v>1.3756999969482422</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.9992752075195313E-4</c:v>
+                  <c:v>1.3999999761581421</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.8066635131835938E-2</c:v>
+                  <c:v>1.4266999959945679</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.2866657574971443E-2</c:v>
+                  <c:v>1.4523999691009521</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.1766684850056892E-2</c:v>
+                  <c:v>1.4814000129699707</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1971,11 +1981,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="381414144"/>
-        <c:axId val="381423160"/>
+        <c:axId val="417735648"/>
+        <c:axId val="417741528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="381414144"/>
+        <c:axId val="417735648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2032,12 +2042,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381423160"/>
+        <c:crossAx val="417741528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="381423160"/>
+        <c:axId val="417741528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2094,7 +2104,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381414144"/>
+        <c:crossAx val="417735648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2235,8 +2245,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.30924365704286966"/>
-                  <c:y val="3.2376786235053953E-2"/>
+                  <c:x val="-0.44871587926509188"/>
+                  <c:y val="0.23767862350539515"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2271,7 +2281,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'1 '!$N$35:$N$45</c:f>
+              <c:f>'1'!$N$35:$N$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2313,42 +2323,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1 '!$O$35:$O$45</c:f>
+              <c:f>'1'!$O$35:$O$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-0.11866664886474609</c:v>
+                  <c:v>1.3056000471115112</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-7.4900031089782715E-2</c:v>
+                  <c:v>1.3267999887466431</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-5.5966734886169434E-2</c:v>
+                  <c:v>1.3451999425888062</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-3.0966718991597419E-2</c:v>
+                  <c:v>1.368899941444397</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-7.2666406631469727E-3</c:v>
+                  <c:v>1.3911000490188599</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.7666581471760328E-3</c:v>
+                  <c:v>1.4068000316619873</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.4666697184244866E-2</c:v>
+                  <c:v>1.4333000183105469</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.5699944496154785E-2</c:v>
+                  <c:v>1.4546999931335449</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.2466602325439453E-2</c:v>
+                  <c:v>1.4810999631881714</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.11006673177083326</c:v>
+                  <c:v>1.509600043296814</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.13716669877370191</c:v>
+                  <c:v>1.5368000268936157</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2363,11 +2373,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="381415712"/>
-        <c:axId val="381421200"/>
+        <c:axId val="417736040"/>
+        <c:axId val="417738392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="381415712"/>
+        <c:axId val="417736040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2424,12 +2434,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381421200"/>
+        <c:crossAx val="417738392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="381421200"/>
+        <c:axId val="417738392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2486,7 +2496,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381415712"/>
+        <c:crossAx val="417736040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2627,8 +2637,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.32371587926509188"/>
-                  <c:y val="8.7546296296296303E-2"/>
+                  <c:x val="-0.28727537182852142"/>
+                  <c:y val="3.1990740740740743E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2663,7 +2673,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'1 '!$N$51:$N$61</c:f>
+              <c:f>'1'!$N$51:$N$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2705,42 +2715,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1 '!$O$51:$O$61</c:f>
+              <c:f>'1'!$O$51:$O$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-2.8366684913635254E-2</c:v>
+                  <c:v>1.3959000110626221</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1199941635131836E-2</c:v>
+                  <c:v>1.4228999614715576</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5733332633972168E-2</c:v>
+                  <c:v>1.4469000101089478</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.863335768381762E-2</c:v>
+                  <c:v>1.468500018119812</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.2533359527587891E-2</c:v>
+                  <c:v>1.4809000492095947</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.9366625150044685E-2</c:v>
+                  <c:v>1.496399998664856</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.11306671301523852</c:v>
+                  <c:v>1.5117000341415405</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.13179993629455566</c:v>
+                  <c:v>1.5307999849319458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.15666663646697998</c:v>
+                  <c:v>1.5552999973297119</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.17726667722066236</c:v>
+                  <c:v>1.5767999887466431</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.19666667779286695</c:v>
+                  <c:v>1.5963000059127808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2755,11 +2765,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="381418456"/>
-        <c:axId val="381417280"/>
+        <c:axId val="417740744"/>
+        <c:axId val="609023200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="381418456"/>
+        <c:axId val="417740744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2816,12 +2826,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381417280"/>
+        <c:crossAx val="609023200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="381417280"/>
+        <c:axId val="609023200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2878,7 +2888,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381418456"/>
+        <c:crossAx val="417740744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3019,8 +3029,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.14871587926509186"/>
-                  <c:y val="-4.1666666666666669E-4"/>
+                  <c:x val="-0.33204921259842518"/>
+                  <c:y val="0.12655584718576846"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3055,7 +3065,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'1 '!$N$68:$N$78</c:f>
+              <c:f>'1'!$N$68:$N$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3097,42 +3107,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1 '!$O$68:$O$78</c:f>
+              <c:f>'1'!$O$68:$O$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-0.18606674671173096</c:v>
+                  <c:v>1.2381999492645264</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.14260005950927734</c:v>
+                  <c:v>1.2590999603271484</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.12266671657562256</c:v>
+                  <c:v>1.278499960899353</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.10166664918263746</c:v>
+                  <c:v>1.2982000112533569</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-8.3466649055480957E-2</c:v>
+                  <c:v>1.3149000406265259</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-6.7233363787333245E-2</c:v>
+                  <c:v>1.329800009727478</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-4.6233375867207771E-2</c:v>
+                  <c:v>1.3523999452590942</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2.1100044250488281E-2</c:v>
+                  <c:v>1.3779000043869019</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.3666362762451172E-3</c:v>
+                  <c:v>1.4029999971389771</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.9466708501179939E-2</c:v>
+                  <c:v>1.4290000200271606</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.2666624387105232E-2</c:v>
+                  <c:v>1.452299952507019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3147,11 +3157,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="381421592"/>
-        <c:axId val="381423552"/>
+        <c:axId val="609027120"/>
+        <c:axId val="609032216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="381421592"/>
+        <c:axId val="609027120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3208,12 +3218,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381423552"/>
+        <c:crossAx val="609032216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="381423552"/>
+        <c:axId val="609032216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3270,7 +3280,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381421592"/>
+        <c:crossAx val="609027120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3411,8 +3421,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.22927143482064741"/>
-                  <c:y val="4.8599810440361622E-2"/>
+                  <c:x val="-0.34535476815398075"/>
+                  <c:y val="0.21254629629629629"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3447,7 +3457,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'1 '!$N$85:$N$95</c:f>
+              <c:f>'1'!$N$85:$N$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3489,42 +3499,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1 '!$O$85:$O$95</c:f>
+              <c:f>'1'!$O$85:$O$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-0.11656665802001953</c:v>
+                  <c:v>1.3077000379562378</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-8.8700056076049805E-2</c:v>
+                  <c:v>1.312999963760376</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-6.9966673851013184E-2</c:v>
+                  <c:v>1.3312000036239624</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4.9066623051961189E-2</c:v>
+                  <c:v>1.3508000373840332</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2.4566650390625E-2</c:v>
+                  <c:v>1.3738000392913818</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-6.3333908716838305E-3</c:v>
+                  <c:v>1.3906999826431274</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.6667467753099849E-4</c:v>
+                  <c:v>1.399399995803833</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2.2700071334838867E-2</c:v>
+                  <c:v>1.3762999773025513</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.2133359909057617E-2</c:v>
+                  <c:v>1.3865000009536743</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.1466682751973396E-2</c:v>
+                  <c:v>1.4309999942779541</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.7766626675923591E-2</c:v>
+                  <c:v>1.4673999547958374</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3539,11 +3549,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="381424336"/>
-        <c:axId val="381425904"/>
+        <c:axId val="609034176"/>
+        <c:axId val="609029472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="381424336"/>
+        <c:axId val="609034176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3600,12 +3610,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381425904"/>
+        <c:crossAx val="609029472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="381425904"/>
+        <c:axId val="609029472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3662,7 +3672,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381424336"/>
+        <c:crossAx val="609034176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9013,6 +9023,558 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Blank "/>
+      <sheetName val="0"/>
+      <sheetName val="1"/>
+      <sheetName val="2"/>
+      <sheetName val="3"/>
+      <sheetName val="Phenol oxidase activity"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="4">
+          <cell r="N4">
+            <v>0</v>
+          </cell>
+          <cell r="O4">
+            <v>1.4206000566482544</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="N5">
+            <v>3</v>
+          </cell>
+          <cell r="O5">
+            <v>1.4632999897003174</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="N6">
+            <v>6</v>
+          </cell>
+          <cell r="O6">
+            <v>1.4937000274658203</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="N7">
+            <v>9</v>
+          </cell>
+          <cell r="O7">
+            <v>1.5225000381469727</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="N8">
+            <v>12</v>
+          </cell>
+          <cell r="O8">
+            <v>1.5699000358581543</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="N9">
+            <v>15</v>
+          </cell>
+          <cell r="O9">
+            <v>1.6111999750137329</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="N10">
+            <v>18</v>
+          </cell>
+          <cell r="O10">
+            <v>1.649399995803833</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="N11">
+            <v>21</v>
+          </cell>
+          <cell r="O11">
+            <v>1.6750999689102173</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="N12">
+            <v>24</v>
+          </cell>
+          <cell r="O12">
+            <v>1.6993999481201172</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="N13">
+            <v>27</v>
+          </cell>
+          <cell r="O13">
+            <v>1.7266999483108521</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="N14">
+            <v>30</v>
+          </cell>
+          <cell r="O14">
+            <v>1.7548999786376953</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="N19">
+            <v>0</v>
+          </cell>
+          <cell r="O19">
+            <v>1.9702999591827393</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="N20">
+            <v>3</v>
+          </cell>
+          <cell r="O20">
+            <v>1.9997999668121338</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="N21">
+            <v>6</v>
+          </cell>
+          <cell r="O21">
+            <v>2.0352001190185547</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="N22">
+            <v>9</v>
+          </cell>
+          <cell r="O22">
+            <v>2.0601999759674072</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="N23">
+            <v>12</v>
+          </cell>
+          <cell r="O23">
+            <v>2.0964999198913574</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="N24">
+            <v>15</v>
+          </cell>
+          <cell r="O24">
+            <v>2.1254000663757324</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="N25">
+            <v>18</v>
+          </cell>
+          <cell r="O25">
+            <v>2.1507000923156738</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="N26">
+            <v>21</v>
+          </cell>
+          <cell r="O26">
+            <v>2.152400016784668</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="N27">
+            <v>24</v>
+          </cell>
+          <cell r="O27">
+            <v>2.1628000736236572</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="N28">
+            <v>27</v>
+          </cell>
+          <cell r="O28">
+            <v>2.1719000339508057</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="N29">
+            <v>30</v>
+          </cell>
+          <cell r="O29">
+            <v>2.1888999938964844</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="N35">
+            <v>0</v>
+          </cell>
+          <cell r="O35">
+            <v>1.7063000202178955</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="N36">
+            <v>3</v>
+          </cell>
+          <cell r="O36">
+            <v>1.7470999956130981</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="N37">
+            <v>6</v>
+          </cell>
+          <cell r="O37">
+            <v>1.8051999807357788</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="N38">
+            <v>9</v>
+          </cell>
+          <cell r="O38">
+            <v>1.8631999492645264</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="N39">
+            <v>12</v>
+          </cell>
+          <cell r="O39">
+            <v>1.9196000099182129</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="N40">
+            <v>15</v>
+          </cell>
+          <cell r="O40">
+            <v>1.9716999530792236</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="N41">
+            <v>18</v>
+          </cell>
+          <cell r="O41">
+            <v>2.0302000045776367</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="N42">
+            <v>21</v>
+          </cell>
+          <cell r="O42">
+            <v>2.072700023651123</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="N43">
+            <v>24</v>
+          </cell>
+          <cell r="O43">
+            <v>2.1182999610900879</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="N44">
+            <v>27</v>
+          </cell>
+          <cell r="O44">
+            <v>2.1515998840332031</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="N45">
+            <v>30</v>
+          </cell>
+          <cell r="O45">
+            <v>2.1879000663757324</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="N51">
+            <v>0</v>
+          </cell>
+          <cell r="O51">
+            <v>1.684499979019165</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="N52">
+            <v>3</v>
+          </cell>
+          <cell r="O52">
+            <v>1.7110999822616577</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="N53">
+            <v>6</v>
+          </cell>
+          <cell r="O53">
+            <v>1.7451000213623047</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="N54">
+            <v>9</v>
+          </cell>
+          <cell r="O54">
+            <v>1.7877000570297241</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="N55">
+            <v>12</v>
+          </cell>
+          <cell r="O55">
+            <v>1.8224999904632568</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="N56">
+            <v>15</v>
+          </cell>
+          <cell r="O56">
+            <v>1.8592000007629395</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="N57">
+            <v>18</v>
+          </cell>
+          <cell r="O57">
+            <v>1.8940999507904053</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="N58">
+            <v>21</v>
+          </cell>
+          <cell r="O58">
+            <v>1.9042999744415283</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="N59">
+            <v>24</v>
+          </cell>
+          <cell r="O59">
+            <v>1.9212000370025635</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="N60">
+            <v>27</v>
+          </cell>
+          <cell r="O60">
+            <v>1.9298000335693359</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="N61">
+            <v>30</v>
+          </cell>
+          <cell r="O61">
+            <v>1.9448000192642212</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="N68">
+            <v>0</v>
+          </cell>
+          <cell r="O68">
+            <v>1.8969000577926636</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="N69">
+            <v>3</v>
+          </cell>
+          <cell r="O69">
+            <v>1.9462000131607056</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="N70">
+            <v>6</v>
+          </cell>
+          <cell r="O70">
+            <v>1.9866000413894653</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="N71">
+            <v>9</v>
+          </cell>
+          <cell r="O71">
+            <v>2.0344998836517334</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="N72">
+            <v>12</v>
+          </cell>
+          <cell r="O72">
+            <v>2.0998001098632813</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="N73">
+            <v>15</v>
+          </cell>
+          <cell r="O73">
+            <v>2.1463000774383545</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="N74">
+            <v>18</v>
+          </cell>
+          <cell r="O74">
+            <v>2.1805000305175781</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="N75">
+            <v>21</v>
+          </cell>
+          <cell r="O75">
+            <v>2.2018001079559326</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="N76">
+            <v>24</v>
+          </cell>
+          <cell r="O76">
+            <v>2.2223000526428223</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="N77">
+            <v>27</v>
+          </cell>
+          <cell r="O77">
+            <v>2.2181000709533691</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="N78">
+            <v>30</v>
+          </cell>
+          <cell r="O78">
+            <v>2.2227001190185547</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="N85">
+            <v>0</v>
+          </cell>
+          <cell r="O85">
+            <v>1.4320000410079956</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="N86">
+            <v>3</v>
+          </cell>
+          <cell r="O86">
+            <v>1.4503999948501587</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="N87">
+            <v>6</v>
+          </cell>
+          <cell r="O87">
+            <v>1.4936000108718872</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="N88">
+            <v>9</v>
+          </cell>
+          <cell r="O88">
+            <v>1.5404000282287598</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="N89">
+            <v>12</v>
+          </cell>
+          <cell r="O89">
+            <v>1.6124999523162842</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="N90">
+            <v>15</v>
+          </cell>
+          <cell r="O90">
+            <v>1.6718000173568726</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="N91">
+            <v>18</v>
+          </cell>
+          <cell r="O91">
+            <v>1.7129000425338745</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="N92">
+            <v>21</v>
+          </cell>
+          <cell r="O92">
+            <v>1.7444000244140625</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="N93">
+            <v>24</v>
+          </cell>
+          <cell r="O93">
+            <v>1.7496999502182007</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="N94">
+            <v>27</v>
+          </cell>
+          <cell r="O94">
+            <v>1.7117999792098999</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="N95">
+            <v>30</v>
+          </cell>
+          <cell r="O95">
+            <v>1.6742000579833984</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -9631,8 +10193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:O95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J92" sqref="J92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9690,194 +10252,91 @@
         <v>0</v>
       </c>
       <c r="O4" s="2">
-        <v>-2.5066733360290527E-2</v>
+        <f>B6</f>
+        <v>1.3991999626159668</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1.3967000246047974</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1.3885999917984009</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1.3905999660491943</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1.3911999464035034</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1.3859000205993652</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1.3845000267028809</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1.3854999542236328</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1.3861000537872314</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1.3851000070571899</v>
-      </c>
-      <c r="K5" s="1">
-        <v>1.3848999738693237</v>
-      </c>
-      <c r="L5" s="1">
-        <v>1.3865000009536743</v>
-      </c>
       <c r="N5" s="2">
         <v>3</v>
       </c>
       <c r="O5" s="2">
-        <v>6.999969482421875E-3</v>
+        <f>C6</f>
+        <v>1.4086999893188477</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1.4670000076293945</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1.4270000457763672</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1.4306000471115112</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1.4265999794006348</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1.4230999946594238</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1.4220000505447388</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1.4242000579833984</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1.4242000579833984</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1.4254000186920166</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1.4251999855041504</v>
-      </c>
-      <c r="L6" s="1">
-        <v>1.4249999523162842</v>
+      <c r="A6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <f>B4</f>
+        <v>1.3991999626159668</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" ref="C6:L6" si="0">C4</f>
+        <v>1.4086999893188477</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4182000160217285</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4309999942779541</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4435000419616699</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4596999883651733</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4768999814987183</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4939999580383301</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5144000053405762</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5327999591827393</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5535000562667847</v>
       </c>
       <c r="N6" s="2">
         <v>6</v>
       </c>
       <c r="O6" s="2">
-        <v>1.703333854675293E-2</v>
+        <f>D6</f>
+        <v>1.4182000160217285</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1.4091000556945801</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1.3895000219345093</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1.3823000192642212</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1.3818000555038452</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1.3861000537872314</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1.384600043296814</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1.386199951171875</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1.3867000341415405</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1.3854000568389893</v>
-      </c>
-      <c r="K7" s="1">
-        <v>1.3884999752044678</v>
-      </c>
-      <c r="L7" s="1">
-        <v>1.3874000310897827</v>
-      </c>
       <c r="N7" s="2">
         <v>9</v>
       </c>
       <c r="O7" s="2">
-        <v>3.1133333841959709E-2</v>
+        <f>E6</f>
+        <v>1.4309999942779541</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="2">
-        <f>B4-(AVERAGE(B5:B7))</f>
-        <v>-2.5066733360290527E-2</v>
-      </c>
-      <c r="C8" s="2">
-        <f t="shared" ref="C8:L8" si="0">C4-(AVERAGE(C5:C7))</f>
-        <v>6.999969482421875E-3</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>1.703333854675293E-2</v>
-      </c>
-      <c r="E8" s="2">
-        <f t="shared" si="0"/>
-        <v>3.1133333841959709E-2</v>
-      </c>
-      <c r="F8" s="2">
-        <f t="shared" si="0"/>
-        <v>4.5133352279663086E-2</v>
-      </c>
-      <c r="G8" s="2">
-        <f t="shared" si="0"/>
-        <v>6.2666614850362068E-2</v>
-      </c>
-      <c r="H8" s="2">
-        <f t="shared" si="0"/>
-        <v>7.8266660372416252E-2</v>
-      </c>
-      <c r="I8" s="2">
-        <f t="shared" si="0"/>
-        <v>9.4999909400939941E-2</v>
-      </c>
-      <c r="J8" s="2">
-        <f t="shared" si="0"/>
-        <v>0.11576664447784424</v>
-      </c>
-      <c r="K8" s="2">
-        <f t="shared" si="0"/>
-        <v>0.13326664765675855</v>
-      </c>
-      <c r="L8" s="2">
-        <f t="shared" si="0"/>
-        <v>0.15386672814687086</v>
-      </c>
       <c r="N8" s="2">
         <v>12</v>
       </c>
       <c r="O8" s="2">
-        <v>4.5133352279663086E-2</v>
+        <f>F6</f>
+        <v>1.4435000419616699</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -9885,7 +10344,8 @@
         <v>15</v>
       </c>
       <c r="O9" s="2">
-        <v>6.2666614850362068E-2</v>
+        <f>G6</f>
+        <v>1.4596999883651733</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -9893,7 +10353,8 @@
         <v>18</v>
       </c>
       <c r="O10" s="2">
-        <v>7.8266660372416252E-2</v>
+        <f>H6</f>
+        <v>1.4768999814987183</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -9901,7 +10362,8 @@
         <v>21</v>
       </c>
       <c r="O11" s="2">
-        <v>9.4999909400939941E-2</v>
+        <f>I6</f>
+        <v>1.4939999580383301</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -9909,7 +10371,8 @@
         <v>24</v>
       </c>
       <c r="O12" s="2">
-        <v>0.11576664447784424</v>
+        <f>J6</f>
+        <v>1.5144000053405762</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -9917,7 +10380,8 @@
         <v>27</v>
       </c>
       <c r="O13" s="2">
-        <v>0.13326664765675855</v>
+        <f>K6</f>
+        <v>1.5327999591827393</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -9925,8 +10389,12 @@
         <v>30</v>
       </c>
       <c r="O14" s="2">
-        <v>0.15386672814687086</v>
-      </c>
+        <f>L6</f>
+        <v>1.5535000562667847</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="10"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
@@ -9969,194 +10437,91 @@
         <v>0</v>
       </c>
       <c r="O19" s="2">
-        <v>-0.17996668815612793</v>
+        <f>B21</f>
+        <v>1.2443000078201294</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="1">
-        <v>1.3967000246047974</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1.3885999917984009</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1.3905999660491943</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1.3911999464035034</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1.3859000205993652</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1.3845000267028809</v>
-      </c>
-      <c r="H20" s="1">
-        <v>1.3854999542236328</v>
-      </c>
-      <c r="I20" s="1">
-        <v>1.3861000537872314</v>
-      </c>
-      <c r="J20" s="1">
-        <v>1.3851000070571899</v>
-      </c>
-      <c r="K20" s="1">
-        <v>1.3848999738693237</v>
-      </c>
-      <c r="L20" s="1">
-        <v>1.3865000009536743</v>
-      </c>
       <c r="N20" s="2">
         <v>3</v>
       </c>
       <c r="O20" s="2">
-        <v>-0.12059998512268066</v>
+        <f>C21</f>
+        <v>1.2811000347137451</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="1">
-        <v>1.4670000076293945</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1.4270000457763672</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1.4306000471115112</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1.4265999794006348</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1.4230999946594238</v>
-      </c>
-      <c r="G21" s="1">
-        <v>1.4220000505447388</v>
-      </c>
-      <c r="H21" s="1">
-        <v>1.4242000579833984</v>
-      </c>
-      <c r="I21" s="1">
-        <v>1.4242000579833984</v>
-      </c>
-      <c r="J21" s="1">
-        <v>1.4254000186920166</v>
-      </c>
-      <c r="K21" s="1">
-        <v>1.4251999855041504</v>
-      </c>
-      <c r="L21" s="1">
-        <v>1.4249999523162842</v>
+      <c r="A21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="2">
+        <f>B19</f>
+        <v>1.2443000078201294</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" ref="C21:L21" si="1">C19</f>
+        <v>1.2811000347137451</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="1"/>
+        <v>1.2990000247955322</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="1"/>
+        <v>1.3192000389099121</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="1"/>
+        <v>1.3342000246047974</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="1"/>
+        <v>1.3550000190734863</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" si="1"/>
+        <v>1.3756999969482422</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="1"/>
+        <v>1.3999999761581421</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4266999959945679</v>
+      </c>
+      <c r="K21" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4523999691009521</v>
+      </c>
+      <c r="L21" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4814000129699707</v>
       </c>
       <c r="N21" s="2">
         <v>6</v>
       </c>
       <c r="O21" s="2">
-        <v>-0.10216665267944336</v>
+        <f>D21</f>
+        <v>1.2990000247955322</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="1">
-        <v>1.4091000556945801</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1.3895000219345093</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1.3823000192642212</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1.3818000555038452</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1.3861000537872314</v>
-      </c>
-      <c r="G22" s="1">
-        <v>1.384600043296814</v>
-      </c>
-      <c r="H22" s="1">
-        <v>1.386199951171875</v>
-      </c>
-      <c r="I22" s="1">
-        <v>1.3867000341415405</v>
-      </c>
-      <c r="J22" s="1">
-        <v>1.3854000568389893</v>
-      </c>
-      <c r="K22" s="1">
-        <v>1.3884999752044678</v>
-      </c>
-      <c r="L22" s="1">
-        <v>1.3874000310897827</v>
-      </c>
       <c r="N22" s="2">
         <v>9</v>
       </c>
       <c r="O22" s="2">
-        <v>-8.0666621526082283E-2</v>
+        <f>E21</f>
+        <v>1.3192000389099121</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="2">
-        <f>B19-(AVERAGE(B20:B22))</f>
-        <v>-0.17996668815612793</v>
-      </c>
-      <c r="C23" s="2">
-        <f t="shared" ref="C23:L23" si="1">C19-(AVERAGE(C20:C22))</f>
-        <v>-0.12059998512268066</v>
-      </c>
-      <c r="D23" s="2">
-        <f t="shared" si="1"/>
-        <v>-0.10216665267944336</v>
-      </c>
-      <c r="E23" s="2">
-        <f t="shared" si="1"/>
-        <v>-8.0666621526082283E-2</v>
-      </c>
-      <c r="F23" s="2">
-        <f t="shared" si="1"/>
-        <v>-6.4166665077209473E-2</v>
-      </c>
-      <c r="G23" s="2">
-        <f t="shared" si="1"/>
-        <v>-4.2033354441324944E-2</v>
-      </c>
-      <c r="H23" s="2">
-        <f t="shared" si="1"/>
-        <v>-2.2933324178059822E-2</v>
-      </c>
-      <c r="I23" s="2">
-        <f t="shared" si="1"/>
-        <v>9.9992752075195313E-4</v>
-      </c>
-      <c r="J23" s="2">
-        <f t="shared" si="1"/>
-        <v>2.8066635131835938E-2</v>
-      </c>
-      <c r="K23" s="2">
-        <f t="shared" si="1"/>
-        <v>5.2866657574971443E-2</v>
-      </c>
-      <c r="L23" s="2">
-        <f t="shared" si="1"/>
-        <v>8.1766684850056892E-2</v>
-      </c>
       <c r="N23" s="2">
         <v>12</v>
       </c>
       <c r="O23" s="2">
-        <v>-6.4166665077209473E-2</v>
+        <f>F21</f>
+        <v>1.3342000246047974</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
@@ -10164,7 +10529,8 @@
         <v>15</v>
       </c>
       <c r="O24" s="2">
-        <v>-4.2033354441324944E-2</v>
+        <f>G21</f>
+        <v>1.3550000190734863</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
@@ -10172,7 +10538,8 @@
         <v>18</v>
       </c>
       <c r="O25" s="2">
-        <v>-2.2933324178059822E-2</v>
+        <f>H21</f>
+        <v>1.3756999969482422</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -10180,7 +10547,8 @@
         <v>21</v>
       </c>
       <c r="O26" s="2">
-        <v>9.9992752075195313E-4</v>
+        <f>I21</f>
+        <v>1.3999999761581421</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
@@ -10188,7 +10556,8 @@
         <v>24</v>
       </c>
       <c r="O27" s="2">
-        <v>2.8066635131835938E-2</v>
+        <f>J21</f>
+        <v>1.4266999959945679</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
@@ -10196,7 +10565,8 @@
         <v>27</v>
       </c>
       <c r="O28" s="2">
-        <v>5.2866657574971443E-2</v>
+        <f>K21</f>
+        <v>1.4523999691009521</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
@@ -10204,7 +10574,8 @@
         <v>30</v>
       </c>
       <c r="O29" s="2">
-        <v>8.1766684850056892E-2</v>
+        <f>L21</f>
+        <v>1.4814000129699707</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
@@ -10248,194 +10619,91 @@
         <v>0</v>
       </c>
       <c r="O35" s="2">
-        <v>-0.11866664886474609</v>
+        <f>B37</f>
+        <v>1.3056000471115112</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="1">
-        <v>1.3967000246047974</v>
-      </c>
-      <c r="C36" s="1">
-        <v>1.3885999917984009</v>
-      </c>
-      <c r="D36" s="1">
-        <v>1.3905999660491943</v>
-      </c>
-      <c r="E36" s="1">
-        <v>1.3911999464035034</v>
-      </c>
-      <c r="F36" s="1">
-        <v>1.3859000205993652</v>
-      </c>
-      <c r="G36" s="1">
-        <v>1.3845000267028809</v>
-      </c>
-      <c r="H36" s="1">
-        <v>1.3854999542236328</v>
-      </c>
-      <c r="I36" s="1">
-        <v>1.3861000537872314</v>
-      </c>
-      <c r="J36" s="1">
-        <v>1.3851000070571899</v>
-      </c>
-      <c r="K36" s="1">
-        <v>1.3848999738693237</v>
-      </c>
-      <c r="L36" s="1">
-        <v>1.3865000009536743</v>
-      </c>
       <c r="N36" s="2">
         <v>3</v>
       </c>
       <c r="O36" s="2">
-        <v>-7.4900031089782715E-2</v>
+        <f>C37</f>
+        <v>1.3267999887466431</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" s="1">
-        <v>1.4670000076293945</v>
-      </c>
-      <c r="C37" s="1">
-        <v>1.4270000457763672</v>
-      </c>
-      <c r="D37" s="1">
-        <v>1.4306000471115112</v>
-      </c>
-      <c r="E37" s="1">
-        <v>1.4265999794006348</v>
-      </c>
-      <c r="F37" s="1">
-        <v>1.4230999946594238</v>
-      </c>
-      <c r="G37" s="1">
-        <v>1.4220000505447388</v>
-      </c>
-      <c r="H37" s="1">
-        <v>1.4242000579833984</v>
-      </c>
-      <c r="I37" s="1">
-        <v>1.4242000579833984</v>
-      </c>
-      <c r="J37" s="1">
-        <v>1.4254000186920166</v>
-      </c>
-      <c r="K37" s="1">
-        <v>1.4251999855041504</v>
-      </c>
-      <c r="L37" s="1">
-        <v>1.4249999523162842</v>
+      <c r="A37" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="2">
+        <f>B35</f>
+        <v>1.3056000471115112</v>
+      </c>
+      <c r="C37" s="2">
+        <f t="shared" ref="C37:L37" si="2">C35</f>
+        <v>1.3267999887466431</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="2"/>
+        <v>1.3451999425888062</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="2"/>
+        <v>1.368899941444397</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="2"/>
+        <v>1.3911000490188599</v>
+      </c>
+      <c r="G37" s="2">
+        <f t="shared" si="2"/>
+        <v>1.4068000316619873</v>
+      </c>
+      <c r="H37" s="2">
+        <f t="shared" si="2"/>
+        <v>1.4333000183105469</v>
+      </c>
+      <c r="I37" s="2">
+        <f t="shared" si="2"/>
+        <v>1.4546999931335449</v>
+      </c>
+      <c r="J37" s="2">
+        <f t="shared" si="2"/>
+        <v>1.4810999631881714</v>
+      </c>
+      <c r="K37" s="2">
+        <f t="shared" si="2"/>
+        <v>1.509600043296814</v>
+      </c>
+      <c r="L37" s="2">
+        <f t="shared" si="2"/>
+        <v>1.5368000268936157</v>
       </c>
       <c r="N37" s="2">
         <v>6</v>
       </c>
       <c r="O37" s="2">
-        <v>-5.5966734886169434E-2</v>
+        <f>D37</f>
+        <v>1.3451999425888062</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" s="1">
-        <v>1.4091000556945801</v>
-      </c>
-      <c r="C38" s="1">
-        <v>1.3895000219345093</v>
-      </c>
-      <c r="D38" s="1">
-        <v>1.3823000192642212</v>
-      </c>
-      <c r="E38" s="1">
-        <v>1.3818000555038452</v>
-      </c>
-      <c r="F38" s="1">
-        <v>1.3861000537872314</v>
-      </c>
-      <c r="G38" s="1">
-        <v>1.384600043296814</v>
-      </c>
-      <c r="H38" s="1">
-        <v>1.386199951171875</v>
-      </c>
-      <c r="I38" s="1">
-        <v>1.3867000341415405</v>
-      </c>
-      <c r="J38" s="1">
-        <v>1.3854000568389893</v>
-      </c>
-      <c r="K38" s="1">
-        <v>1.3884999752044678</v>
-      </c>
-      <c r="L38" s="1">
-        <v>1.3874000310897827</v>
-      </c>
       <c r="N38" s="2">
         <v>9</v>
       </c>
       <c r="O38" s="2">
-        <v>-3.0966718991597419E-2</v>
+        <f>E37</f>
+        <v>1.368899941444397</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="2">
-        <f>B35-(AVERAGE(B36:B38))</f>
-        <v>-0.11866664886474609</v>
-      </c>
-      <c r="C39" s="2">
-        <f t="shared" ref="C39:L39" si="2">C35-(AVERAGE(C36:C38))</f>
-        <v>-7.4900031089782715E-2</v>
-      </c>
-      <c r="D39" s="2">
-        <f t="shared" si="2"/>
-        <v>-5.5966734886169434E-2</v>
-      </c>
-      <c r="E39" s="2">
-        <f t="shared" si="2"/>
-        <v>-3.0966718991597419E-2</v>
-      </c>
-      <c r="F39" s="2">
-        <f t="shared" si="2"/>
-        <v>-7.2666406631469727E-3</v>
-      </c>
-      <c r="G39" s="2">
-        <f t="shared" si="2"/>
-        <v>9.7666581471760328E-3</v>
-      </c>
-      <c r="H39" s="2">
-        <f t="shared" si="2"/>
-        <v>3.4666697184244866E-2</v>
-      </c>
-      <c r="I39" s="2">
-        <f t="shared" si="2"/>
-        <v>5.5699944496154785E-2</v>
-      </c>
-      <c r="J39" s="2">
-        <f t="shared" si="2"/>
-        <v>8.2466602325439453E-2</v>
-      </c>
-      <c r="K39" s="2">
-        <f t="shared" si="2"/>
-        <v>0.11006673177083326</v>
-      </c>
-      <c r="L39" s="2">
-        <f t="shared" si="2"/>
-        <v>0.13716669877370191</v>
-      </c>
       <c r="N39" s="2">
         <v>12</v>
       </c>
       <c r="O39" s="2">
-        <v>-7.2666406631469727E-3</v>
+        <f>F37</f>
+        <v>1.3911000490188599</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
@@ -10443,7 +10711,8 @@
         <v>15</v>
       </c>
       <c r="O40" s="2">
-        <v>9.7666581471760328E-3</v>
+        <f>G37</f>
+        <v>1.4068000316619873</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
@@ -10451,7 +10720,8 @@
         <v>18</v>
       </c>
       <c r="O41" s="2">
-        <v>3.4666697184244866E-2</v>
+        <f>H37</f>
+        <v>1.4333000183105469</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
@@ -10459,7 +10729,8 @@
         <v>21</v>
       </c>
       <c r="O42" s="2">
-        <v>5.5699944496154785E-2</v>
+        <f>I37</f>
+        <v>1.4546999931335449</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
@@ -10468,7 +10739,8 @@
         <v>24</v>
       </c>
       <c r="O43" s="2">
-        <v>8.2466602325439453E-2</v>
+        <f>J37</f>
+        <v>1.4810999631881714</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
@@ -10476,7 +10748,8 @@
         <v>27</v>
       </c>
       <c r="O44" s="2">
-        <v>0.11006673177083326</v>
+        <f>K37</f>
+        <v>1.509600043296814</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
@@ -10484,7 +10757,8 @@
         <v>30</v>
       </c>
       <c r="O45" s="2">
-        <v>0.13716669877370191</v>
+        <f>L37</f>
+        <v>1.5368000268936157</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
@@ -10528,194 +10802,91 @@
         <v>0</v>
       </c>
       <c r="O51" s="2">
-        <v>-2.8366684913635254E-2</v>
+        <f>B53</f>
+        <v>1.3959000110626221</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B52" s="1">
-        <v>1.3967000246047974</v>
-      </c>
-      <c r="C52" s="1">
-        <v>1.3885999917984009</v>
-      </c>
-      <c r="D52" s="1">
-        <v>1.3905999660491943</v>
-      </c>
-      <c r="E52" s="1">
-        <v>1.3911999464035034</v>
-      </c>
-      <c r="F52" s="1">
-        <v>1.3859000205993652</v>
-      </c>
-      <c r="G52" s="1">
-        <v>1.3845000267028809</v>
-      </c>
-      <c r="H52" s="1">
-        <v>1.3854999542236328</v>
-      </c>
-      <c r="I52" s="1">
-        <v>1.3861000537872314</v>
-      </c>
-      <c r="J52" s="1">
-        <v>1.3851000070571899</v>
-      </c>
-      <c r="K52" s="1">
-        <v>1.3848999738693237</v>
-      </c>
-      <c r="L52" s="1">
-        <v>1.3865000009536743</v>
-      </c>
       <c r="N52" s="2">
         <v>3</v>
       </c>
       <c r="O52" s="2">
-        <v>2.1199941635131836E-2</v>
+        <f>C53</f>
+        <v>1.4228999614715576</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B53" s="1">
-        <v>1.4670000076293945</v>
-      </c>
-      <c r="C53" s="1">
-        <v>1.4270000457763672</v>
-      </c>
-      <c r="D53" s="1">
-        <v>1.4306000471115112</v>
-      </c>
-      <c r="E53" s="1">
-        <v>1.4265999794006348</v>
-      </c>
-      <c r="F53" s="1">
-        <v>1.4230999946594238</v>
-      </c>
-      <c r="G53" s="1">
-        <v>1.4220000505447388</v>
-      </c>
-      <c r="H53" s="1">
-        <v>1.4242000579833984</v>
-      </c>
-      <c r="I53" s="1">
-        <v>1.4242000579833984</v>
-      </c>
-      <c r="J53" s="1">
-        <v>1.4254000186920166</v>
-      </c>
-      <c r="K53" s="1">
-        <v>1.4251999855041504</v>
-      </c>
-      <c r="L53" s="1">
-        <v>1.4249999523162842</v>
+      <c r="A53" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="2">
+        <f>B51</f>
+        <v>1.3959000110626221</v>
+      </c>
+      <c r="C53" s="2">
+        <f t="shared" ref="C53:L53" si="3">C51</f>
+        <v>1.4228999614715576</v>
+      </c>
+      <c r="D53" s="2">
+        <f t="shared" si="3"/>
+        <v>1.4469000101089478</v>
+      </c>
+      <c r="E53" s="2">
+        <f t="shared" si="3"/>
+        <v>1.468500018119812</v>
+      </c>
+      <c r="F53" s="2">
+        <f t="shared" si="3"/>
+        <v>1.4809000492095947</v>
+      </c>
+      <c r="G53" s="2">
+        <f t="shared" si="3"/>
+        <v>1.496399998664856</v>
+      </c>
+      <c r="H53" s="2">
+        <f t="shared" si="3"/>
+        <v>1.5117000341415405</v>
+      </c>
+      <c r="I53" s="2">
+        <f t="shared" si="3"/>
+        <v>1.5307999849319458</v>
+      </c>
+      <c r="J53" s="2">
+        <f t="shared" si="3"/>
+        <v>1.5552999973297119</v>
+      </c>
+      <c r="K53" s="2">
+        <f t="shared" si="3"/>
+        <v>1.5767999887466431</v>
+      </c>
+      <c r="L53" s="2">
+        <f t="shared" si="3"/>
+        <v>1.5963000059127808</v>
       </c>
       <c r="N53" s="2">
         <v>6</v>
       </c>
       <c r="O53" s="2">
-        <v>4.5733332633972168E-2</v>
+        <f>D53</f>
+        <v>1.4469000101089478</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B54" s="1">
-        <v>1.4091000556945801</v>
-      </c>
-      <c r="C54" s="1">
-        <v>1.3895000219345093</v>
-      </c>
-      <c r="D54" s="1">
-        <v>1.3823000192642212</v>
-      </c>
-      <c r="E54" s="1">
-        <v>1.3818000555038452</v>
-      </c>
-      <c r="F54" s="1">
-        <v>1.3861000537872314</v>
-      </c>
-      <c r="G54" s="1">
-        <v>1.384600043296814</v>
-      </c>
-      <c r="H54" s="1">
-        <v>1.386199951171875</v>
-      </c>
-      <c r="I54" s="1">
-        <v>1.3867000341415405</v>
-      </c>
-      <c r="J54" s="1">
-        <v>1.3854000568389893</v>
-      </c>
-      <c r="K54" s="1">
-        <v>1.3884999752044678</v>
-      </c>
-      <c r="L54" s="1">
-        <v>1.3874000310897827</v>
-      </c>
       <c r="N54" s="2">
         <v>9</v>
       </c>
       <c r="O54" s="2">
-        <v>6.863335768381762E-2</v>
+        <f>E53</f>
+        <v>1.468500018119812</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" s="2">
-        <f>B51-(AVERAGE(B52:B54))</f>
-        <v>-2.8366684913635254E-2</v>
-      </c>
-      <c r="C55" s="2">
-        <f t="shared" ref="C55:L55" si="3">C51-(AVERAGE(C52:C54))</f>
-        <v>2.1199941635131836E-2</v>
-      </c>
-      <c r="D55" s="2">
-        <f t="shared" si="3"/>
-        <v>4.5733332633972168E-2</v>
-      </c>
-      <c r="E55" s="2">
-        <f t="shared" si="3"/>
-        <v>6.863335768381762E-2</v>
-      </c>
-      <c r="F55" s="2">
-        <f t="shared" si="3"/>
-        <v>8.2533359527587891E-2</v>
-      </c>
-      <c r="G55" s="2">
-        <f t="shared" si="3"/>
-        <v>9.9366625150044685E-2</v>
-      </c>
-      <c r="H55" s="2">
-        <f t="shared" si="3"/>
-        <v>0.11306671301523852</v>
-      </c>
-      <c r="I55" s="2">
-        <f t="shared" si="3"/>
-        <v>0.13179993629455566</v>
-      </c>
-      <c r="J55" s="2">
-        <f t="shared" si="3"/>
-        <v>0.15666663646697998</v>
-      </c>
-      <c r="K55" s="2">
-        <f t="shared" si="3"/>
-        <v>0.17726667722066236</v>
-      </c>
-      <c r="L55" s="2">
-        <f t="shared" si="3"/>
-        <v>0.19666667779286695</v>
-      </c>
       <c r="N55" s="2">
         <v>12</v>
       </c>
       <c r="O55" s="2">
-        <v>8.2533359527587891E-2</v>
+        <f>F53</f>
+        <v>1.4809000492095947</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
@@ -10723,7 +10894,8 @@
         <v>15</v>
       </c>
       <c r="O56" s="2">
-        <v>9.9366625150044685E-2</v>
+        <f>G53</f>
+        <v>1.496399998664856</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
@@ -10731,7 +10903,8 @@
         <v>18</v>
       </c>
       <c r="O57" s="2">
-        <v>0.11306671301523852</v>
+        <f>H53</f>
+        <v>1.5117000341415405</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
@@ -10739,7 +10912,8 @@
         <v>21</v>
       </c>
       <c r="O58" s="2">
-        <v>0.13179993629455566</v>
+        <f>I53</f>
+        <v>1.5307999849319458</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
@@ -10747,7 +10921,8 @@
         <v>24</v>
       </c>
       <c r="O59" s="2">
-        <v>0.15666663646697998</v>
+        <f>J53</f>
+        <v>1.5552999973297119</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
@@ -10755,7 +10930,8 @@
         <v>27</v>
       </c>
       <c r="O60" s="2">
-        <v>0.17726667722066236</v>
+        <f>K53</f>
+        <v>1.5767999887466431</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
@@ -10763,7 +10939,8 @@
         <v>30</v>
       </c>
       <c r="O61" s="2">
-        <v>0.19666667779286695</v>
+        <f>L53</f>
+        <v>1.5963000059127808</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
@@ -10807,194 +10984,91 @@
         <v>0</v>
       </c>
       <c r="O68" s="2">
-        <v>-0.18606674671173096</v>
+        <f>B70</f>
+        <v>1.2381999492645264</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B69" s="1">
-        <v>1.3967000246047974</v>
-      </c>
-      <c r="C69" s="1">
-        <v>1.3885999917984009</v>
-      </c>
-      <c r="D69" s="1">
-        <v>1.3905999660491943</v>
-      </c>
-      <c r="E69" s="1">
-        <v>1.3911999464035034</v>
-      </c>
-      <c r="F69" s="1">
-        <v>1.3859000205993652</v>
-      </c>
-      <c r="G69" s="1">
-        <v>1.3845000267028809</v>
-      </c>
-      <c r="H69" s="1">
-        <v>1.3854999542236328</v>
-      </c>
-      <c r="I69" s="1">
-        <v>1.3861000537872314</v>
-      </c>
-      <c r="J69" s="1">
-        <v>1.3851000070571899</v>
-      </c>
-      <c r="K69" s="1">
-        <v>1.3848999738693237</v>
-      </c>
-      <c r="L69" s="1">
-        <v>1.3865000009536743</v>
-      </c>
       <c r="N69" s="2">
         <v>3</v>
       </c>
       <c r="O69" s="2">
-        <v>-0.14260005950927734</v>
+        <f>C70</f>
+        <v>1.2590999603271484</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B70" s="1">
-        <v>1.4670000076293945</v>
-      </c>
-      <c r="C70" s="1">
-        <v>1.4270000457763672</v>
-      </c>
-      <c r="D70" s="1">
-        <v>1.4306000471115112</v>
-      </c>
-      <c r="E70" s="1">
-        <v>1.4265999794006348</v>
-      </c>
-      <c r="F70" s="1">
-        <v>1.4230999946594238</v>
-      </c>
-      <c r="G70" s="1">
-        <v>1.4220000505447388</v>
-      </c>
-      <c r="H70" s="1">
-        <v>1.4242000579833984</v>
-      </c>
-      <c r="I70" s="1">
-        <v>1.4242000579833984</v>
-      </c>
-      <c r="J70" s="1">
-        <v>1.4254000186920166</v>
-      </c>
-      <c r="K70" s="1">
-        <v>1.4251999855041504</v>
-      </c>
-      <c r="L70" s="1">
-        <v>1.4249999523162842</v>
+      <c r="A70" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" s="2">
+        <f>B68</f>
+        <v>1.2381999492645264</v>
+      </c>
+      <c r="C70" s="2">
+        <f t="shared" ref="C70:L70" si="4">C68</f>
+        <v>1.2590999603271484</v>
+      </c>
+      <c r="D70" s="2">
+        <f t="shared" si="4"/>
+        <v>1.278499960899353</v>
+      </c>
+      <c r="E70" s="2">
+        <f t="shared" si="4"/>
+        <v>1.2982000112533569</v>
+      </c>
+      <c r="F70" s="2">
+        <f t="shared" si="4"/>
+        <v>1.3149000406265259</v>
+      </c>
+      <c r="G70" s="2">
+        <f t="shared" si="4"/>
+        <v>1.329800009727478</v>
+      </c>
+      <c r="H70" s="2">
+        <f t="shared" si="4"/>
+        <v>1.3523999452590942</v>
+      </c>
+      <c r="I70" s="2">
+        <f t="shared" si="4"/>
+        <v>1.3779000043869019</v>
+      </c>
+      <c r="J70" s="2">
+        <f t="shared" si="4"/>
+        <v>1.4029999971389771</v>
+      </c>
+      <c r="K70" s="2">
+        <f t="shared" si="4"/>
+        <v>1.4290000200271606</v>
+      </c>
+      <c r="L70" s="2">
+        <f t="shared" si="4"/>
+        <v>1.452299952507019</v>
       </c>
       <c r="N70" s="2">
         <v>6</v>
       </c>
       <c r="O70" s="2">
-        <v>-0.12266671657562256</v>
+        <f>D70</f>
+        <v>1.278499960899353</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B71" s="1">
-        <v>1.4091000556945801</v>
-      </c>
-      <c r="C71" s="1">
-        <v>1.3895000219345093</v>
-      </c>
-      <c r="D71" s="1">
-        <v>1.3823000192642212</v>
-      </c>
-      <c r="E71" s="1">
-        <v>1.3818000555038452</v>
-      </c>
-      <c r="F71" s="1">
-        <v>1.3861000537872314</v>
-      </c>
-      <c r="G71" s="1">
-        <v>1.384600043296814</v>
-      </c>
-      <c r="H71" s="1">
-        <v>1.386199951171875</v>
-      </c>
-      <c r="I71" s="1">
-        <v>1.3867000341415405</v>
-      </c>
-      <c r="J71" s="1">
-        <v>1.3854000568389893</v>
-      </c>
-      <c r="K71" s="1">
-        <v>1.3884999752044678</v>
-      </c>
-      <c r="L71" s="1">
-        <v>1.3874000310897827</v>
-      </c>
       <c r="N71" s="2">
         <v>9</v>
       </c>
       <c r="O71" s="2">
-        <v>-0.10166664918263746</v>
+        <f>E70</f>
+        <v>1.2982000112533569</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B72" s="2">
-        <f>B68-(AVERAGE(B69:B71))</f>
-        <v>-0.18606674671173096</v>
-      </c>
-      <c r="C72" s="2">
-        <f t="shared" ref="C72:L72" si="4">C68-(AVERAGE(C69:C71))</f>
-        <v>-0.14260005950927734</v>
-      </c>
-      <c r="D72" s="2">
-        <f t="shared" si="4"/>
-        <v>-0.12266671657562256</v>
-      </c>
-      <c r="E72" s="2">
-        <f t="shared" si="4"/>
-        <v>-0.10166664918263746</v>
-      </c>
-      <c r="F72" s="2">
-        <f t="shared" si="4"/>
-        <v>-8.3466649055480957E-2</v>
-      </c>
-      <c r="G72" s="2">
-        <f t="shared" si="4"/>
-        <v>-6.7233363787333245E-2</v>
-      </c>
-      <c r="H72" s="2">
-        <f t="shared" si="4"/>
-        <v>-4.6233375867207771E-2</v>
-      </c>
-      <c r="I72" s="2">
-        <f t="shared" si="4"/>
-        <v>-2.1100044250488281E-2</v>
-      </c>
-      <c r="J72" s="2">
-        <f t="shared" si="4"/>
-        <v>4.3666362762451172E-3</v>
-      </c>
-      <c r="K72" s="2">
-        <f t="shared" si="4"/>
-        <v>2.9466708501179939E-2</v>
-      </c>
-      <c r="L72" s="2">
-        <f t="shared" si="4"/>
-        <v>5.2666624387105232E-2</v>
-      </c>
       <c r="N72" s="2">
         <v>12</v>
       </c>
       <c r="O72" s="2">
-        <v>-8.3466649055480957E-2</v>
+        <f>F70</f>
+        <v>1.3149000406265259</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
@@ -11002,7 +11076,8 @@
         <v>15</v>
       </c>
       <c r="O73" s="2">
-        <v>-6.7233363787333245E-2</v>
+        <f>G70</f>
+        <v>1.329800009727478</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
@@ -11010,7 +11085,8 @@
         <v>18</v>
       </c>
       <c r="O74" s="2">
-        <v>-4.6233375867207771E-2</v>
+        <f>H70</f>
+        <v>1.3523999452590942</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
@@ -11018,7 +11094,8 @@
         <v>21</v>
       </c>
       <c r="O75" s="2">
-        <v>-2.1100044250488281E-2</v>
+        <f>I70</f>
+        <v>1.3779000043869019</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
@@ -11026,7 +11103,8 @@
         <v>24</v>
       </c>
       <c r="O76" s="2">
-        <v>4.3666362762451172E-3</v>
+        <f>J70</f>
+        <v>1.4029999971389771</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
@@ -11034,7 +11112,8 @@
         <v>27</v>
       </c>
       <c r="O77" s="2">
-        <v>2.9466708501179939E-2</v>
+        <f>K70</f>
+        <v>1.4290000200271606</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
@@ -11042,7 +11121,8 @@
         <v>30</v>
       </c>
       <c r="O78" s="2">
-        <v>5.2666624387105232E-2</v>
+        <f>L70</f>
+        <v>1.452299952507019</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
@@ -11086,194 +11166,91 @@
         <v>0</v>
       </c>
       <c r="O85" s="2">
-        <v>-0.11656665802001953</v>
+        <f>B87</f>
+        <v>1.3077000379562378</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B86" s="1">
-        <v>1.3967000246047974</v>
-      </c>
-      <c r="C86" s="1">
-        <v>1.3885999917984009</v>
-      </c>
-      <c r="D86" s="1">
-        <v>1.3905999660491943</v>
-      </c>
-      <c r="E86" s="1">
-        <v>1.3911999464035034</v>
-      </c>
-      <c r="F86" s="1">
-        <v>1.3859000205993652</v>
-      </c>
-      <c r="G86" s="1">
-        <v>1.3845000267028809</v>
-      </c>
-      <c r="H86" s="1">
-        <v>1.3854999542236328</v>
-      </c>
-      <c r="I86" s="1">
-        <v>1.3861000537872314</v>
-      </c>
-      <c r="J86" s="1">
-        <v>1.3851000070571899</v>
-      </c>
-      <c r="K86" s="1">
-        <v>1.3848999738693237</v>
-      </c>
-      <c r="L86" s="1">
-        <v>1.3865000009536743</v>
-      </c>
       <c r="N86" s="2">
         <v>3</v>
       </c>
       <c r="O86" s="2">
-        <v>-8.8700056076049805E-2</v>
+        <f>C87</f>
+        <v>1.312999963760376</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B87" s="1">
-        <v>1.4670000076293945</v>
-      </c>
-      <c r="C87" s="1">
-        <v>1.4270000457763672</v>
-      </c>
-      <c r="D87" s="1">
-        <v>1.4306000471115112</v>
-      </c>
-      <c r="E87" s="1">
-        <v>1.4265999794006348</v>
-      </c>
-      <c r="F87" s="1">
-        <v>1.4230999946594238</v>
-      </c>
-      <c r="G87" s="1">
-        <v>1.4220000505447388</v>
-      </c>
-      <c r="H87" s="1">
-        <v>1.4242000579833984</v>
-      </c>
-      <c r="I87" s="1">
-        <v>1.4242000579833984</v>
-      </c>
-      <c r="J87" s="1">
-        <v>1.4254000186920166</v>
-      </c>
-      <c r="K87" s="1">
-        <v>1.4251999855041504</v>
-      </c>
-      <c r="L87" s="1">
-        <v>1.4249999523162842</v>
+      <c r="A87" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" s="2">
+        <f>B85</f>
+        <v>1.3077000379562378</v>
+      </c>
+      <c r="C87" s="2">
+        <f t="shared" ref="C87:L87" si="5">C85</f>
+        <v>1.312999963760376</v>
+      </c>
+      <c r="D87" s="2">
+        <f t="shared" si="5"/>
+        <v>1.3312000036239624</v>
+      </c>
+      <c r="E87" s="2">
+        <f t="shared" si="5"/>
+        <v>1.3508000373840332</v>
+      </c>
+      <c r="F87" s="2">
+        <f t="shared" si="5"/>
+        <v>1.3738000392913818</v>
+      </c>
+      <c r="G87" s="2">
+        <f t="shared" si="5"/>
+        <v>1.3906999826431274</v>
+      </c>
+      <c r="H87" s="2">
+        <f t="shared" si="5"/>
+        <v>1.399399995803833</v>
+      </c>
+      <c r="I87" s="2">
+        <f t="shared" si="5"/>
+        <v>1.3762999773025513</v>
+      </c>
+      <c r="J87" s="2">
+        <f t="shared" si="5"/>
+        <v>1.3865000009536743</v>
+      </c>
+      <c r="K87" s="2">
+        <f t="shared" si="5"/>
+        <v>1.4309999942779541</v>
+      </c>
+      <c r="L87" s="2">
+        <f t="shared" si="5"/>
+        <v>1.4673999547958374</v>
       </c>
       <c r="N87" s="2">
         <v>6</v>
       </c>
       <c r="O87" s="2">
-        <v>-6.9966673851013184E-2</v>
+        <f>D87</f>
+        <v>1.3312000036239624</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B88" s="1">
-        <v>1.4091000556945801</v>
-      </c>
-      <c r="C88" s="1">
-        <v>1.3895000219345093</v>
-      </c>
-      <c r="D88" s="1">
-        <v>1.3823000192642212</v>
-      </c>
-      <c r="E88" s="1">
-        <v>1.3818000555038452</v>
-      </c>
-      <c r="F88" s="1">
-        <v>1.3861000537872314</v>
-      </c>
-      <c r="G88" s="1">
-        <v>1.384600043296814</v>
-      </c>
-      <c r="H88" s="1">
-        <v>1.386199951171875</v>
-      </c>
-      <c r="I88" s="1">
-        <v>1.3867000341415405</v>
-      </c>
-      <c r="J88" s="1">
-        <v>1.3854000568389893</v>
-      </c>
-      <c r="K88" s="1">
-        <v>1.3884999752044678</v>
-      </c>
-      <c r="L88" s="1">
-        <v>1.3874000310897827</v>
-      </c>
       <c r="N88" s="2">
         <v>9</v>
       </c>
       <c r="O88" s="2">
-        <v>-4.9066623051961189E-2</v>
+        <f>E87</f>
+        <v>1.3508000373840332</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A89" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B89" s="2">
-        <f>B85-(AVERAGE(B86:B88))</f>
-        <v>-0.11656665802001953</v>
-      </c>
-      <c r="C89" s="2">
-        <f t="shared" ref="C89:L89" si="5">C85-(AVERAGE(C86:C88))</f>
-        <v>-8.8700056076049805E-2</v>
-      </c>
-      <c r="D89" s="2">
-        <f t="shared" si="5"/>
-        <v>-6.9966673851013184E-2</v>
-      </c>
-      <c r="E89" s="2">
-        <f t="shared" si="5"/>
-        <v>-4.9066623051961189E-2</v>
-      </c>
-      <c r="F89" s="2">
-        <f t="shared" si="5"/>
-        <v>-2.4566650390625E-2</v>
-      </c>
-      <c r="G89" s="2">
-        <f t="shared" si="5"/>
-        <v>-6.3333908716838305E-3</v>
-      </c>
-      <c r="H89" s="2">
-        <f t="shared" si="5"/>
-        <v>7.6667467753099849E-4</v>
-      </c>
-      <c r="I89" s="2">
-        <f t="shared" si="5"/>
-        <v>-2.2700071334838867E-2</v>
-      </c>
-      <c r="J89" s="2">
-        <f t="shared" si="5"/>
-        <v>-1.2133359909057617E-2</v>
-      </c>
-      <c r="K89" s="2">
-        <f t="shared" si="5"/>
-        <v>3.1466682751973396E-2</v>
-      </c>
-      <c r="L89" s="2">
-        <f t="shared" si="5"/>
-        <v>6.7766626675923591E-2</v>
-      </c>
       <c r="N89" s="2">
         <v>12</v>
       </c>
       <c r="O89" s="2">
-        <v>-2.4566650390625E-2</v>
+        <f>F87</f>
+        <v>1.3738000392913818</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
@@ -11281,7 +11258,8 @@
         <v>15</v>
       </c>
       <c r="O90" s="2">
-        <v>-6.3333908716838305E-3</v>
+        <f>G87</f>
+        <v>1.3906999826431274</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
@@ -11289,7 +11267,8 @@
         <v>18</v>
       </c>
       <c r="O91" s="2">
-        <v>7.6667467753099849E-4</v>
+        <f>H87</f>
+        <v>1.399399995803833</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.3">
@@ -11297,7 +11276,8 @@
         <v>21</v>
       </c>
       <c r="O92" s="2">
-        <v>-2.2700071334838867E-2</v>
+        <f>I87</f>
+        <v>1.3762999773025513</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.3">
@@ -11305,7 +11285,8 @@
         <v>24</v>
       </c>
       <c r="O93" s="2">
-        <v>-1.2133359909057617E-2</v>
+        <f>J87</f>
+        <v>1.3865000009536743</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.3">
@@ -11313,7 +11294,8 @@
         <v>27</v>
       </c>
       <c r="O94" s="2">
-        <v>3.1466682751973396E-2</v>
+        <f>K87</f>
+        <v>1.4309999942779541</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.3">
@@ -11321,7 +11303,8 @@
         <v>30</v>
       </c>
       <c r="O95" s="2">
-        <v>6.7766626675923591E-2</v>
+        <f>L87</f>
+        <v>1.4673999547958374</v>
       </c>
     </row>
   </sheetData>
@@ -11335,7 +11318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
@@ -11397,28 +11380,28 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>5.5999999999999999E-3</v>
+        <v>5.1999999999999998E-3</v>
       </c>
       <c r="E3" s="1">
         <v>1E-4</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F8" si="0">D3-E3</f>
-        <v>5.4999999999999997E-3</v>
+        <v>5.0999999999999995E-3</v>
       </c>
       <c r="G3" s="1">
         <v>6.1499999999999999E-2</v>
       </c>
       <c r="H3" s="1">
         <f t="shared" ref="H3:H8" si="1">F3/G3</f>
-        <v>8.943089430894309E-2</v>
+        <v>8.2926829268292673E-2</v>
       </c>
       <c r="I3" s="7">
         <v>66.3333333333333</v>
       </c>
       <c r="J3" s="7">
         <f t="shared" ref="J3:J8" si="2">(H3*60*50000*100)/(1000*50*0.6*I3)</f>
-        <v>13.482044368182382</v>
+        <v>12.501532050496388</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -11427,29 +11410,29 @@
       <c r="C4" s="6">
         <v>2</v>
       </c>
-      <c r="D4" s="1">
-        <v>7.9000000000000008E-3</v>
+      <c r="D4">
+        <v>7.4000000000000003E-3</v>
       </c>
       <c r="E4" s="1">
         <v>1E-4</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>7.8000000000000005E-3</v>
+        <v>7.3000000000000001E-3</v>
       </c>
       <c r="G4" s="1">
         <v>6.1499999999999999E-2</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="1"/>
-        <v>0.12682926829268293</v>
+        <v>0.11869918699186992</v>
       </c>
       <c r="I4" s="7">
         <v>66.3333333333333</v>
       </c>
       <c r="J4" s="7">
         <f t="shared" si="2"/>
-        <v>19.119990194876831</v>
+        <v>17.89434979776934</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -11459,28 +11442,28 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>8.0000000000000002E-3</v>
+        <v>7.6E-3</v>
       </c>
       <c r="E5" s="1">
         <v>1E-4</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>7.9000000000000008E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="G5" s="1">
         <v>6.1499999999999999E-2</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="1"/>
-        <v>0.12845528455284555</v>
+        <v>0.12195121951219512</v>
       </c>
       <c r="I5" s="7">
         <v>66.3333333333333</v>
       </c>
       <c r="J5" s="7">
         <f t="shared" si="2"/>
-        <v>19.365118274298336</v>
+        <v>18.384605956612337</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -11490,28 +11473,28 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <v>6.7999999999999996E-3</v>
+        <v>6.4000000000000003E-3</v>
       </c>
       <c r="E6" s="1">
         <v>1E-4</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>6.6999999999999994E-3</v>
+        <v>6.3E-3</v>
       </c>
       <c r="G6" s="1">
         <v>6.1499999999999999E-2</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="1"/>
-        <v>0.1089430894308943</v>
+        <v>0.10243902439024391</v>
       </c>
       <c r="I6" s="7">
         <v>66.3333333333333</v>
       </c>
       <c r="J6" s="7">
         <f t="shared" si="2"/>
-        <v>16.423581321240352</v>
+        <v>15.443069003554363</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -11521,28 +11504,28 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>7.4999999999999997E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E7" s="1">
         <v>1E-4</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>7.3999999999999995E-3</v>
+        <v>6.8999999999999999E-3</v>
       </c>
       <c r="G7" s="1">
         <v>6.1499999999999999E-2</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="1"/>
-        <v>0.12032520325203251</v>
+        <v>0.11219512195121951</v>
       </c>
       <c r="I7" s="7">
         <v>66.3333333333333</v>
       </c>
       <c r="J7" s="7">
         <f t="shared" si="2"/>
-        <v>18.139477877190842</v>
+        <v>16.913837480083352</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -11552,28 +11535,28 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>5.0000000000000001E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="E8" s="1">
         <v>1E-4</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>4.8999999999999998E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="G8" s="1">
         <v>6.1499999999999999E-2</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="1"/>
-        <v>7.9674796747967472E-2</v>
+        <v>7.3170731707317069E-2</v>
       </c>
       <c r="I8" s="7">
         <v>66.3333333333333</v>
       </c>
       <c r="J8" s="7">
         <f t="shared" si="2"/>
-        <v>12.011275891653394</v>
+        <v>11.030763573967404</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
